--- a/FASE 3/EVIDENCIA GRUPALES/PLANILLA DE EVALUACIÓN FASE 3 - PRESENTACION FINAL.xlsx
+++ b/FASE 3/EVIDENCIA GRUPALES/PLANILLA DE EVALUACIÓN FASE 3 - PRESENTACION FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/ge_galan_profesor_duoc_cl/Documents/2024-2/Clases/CAPSTONE/DOCUMENTOS FASE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA9E333-109C-40E4-9CB6-8C2D20BED8EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A4F0CE-7474-45AA-BAB1-C2A6F6624C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>INTEGRANTES</t>
   </si>
@@ -80,13 +80,13 @@
     <t>Nota final</t>
   </si>
   <si>
-    <t>ESTUDIANTE 1</t>
+    <t xml:space="preserve">BRENET </t>
   </si>
   <si>
-    <t>ESTUDIANTE 2</t>
+    <t>LETELIER</t>
   </si>
   <si>
-    <t>ESTUDIANTE 3</t>
+    <t>FARIAS</t>
   </si>
   <si>
     <t>DOCENTE</t>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>No logrado</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Puntaje</t>
@@ -830,6 +833,9 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -875,9 +881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1262,16 +1265,15 @@
         <v>4</v>
       </c>
       <c r="C4" s="31">
-        <f>C21</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D4" s="37">
         <f>C60</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="36">
         <f>C4*C$2+D4*D$2</f>
-        <v>7</v>
+        <v>6.2099999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.45">
@@ -1283,15 +1285,15 @@
       </c>
       <c r="C5" s="31">
         <f>C34</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="37">
         <f>C73</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="36">
         <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
-        <v>7</v>
+        <v>6.2099999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.45">
@@ -1303,64 +1305,64 @@
       </c>
       <c r="C6" s="31">
         <f>C47</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="D6" s="37">
         <f>C86</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6.2099999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" outlineLevel="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="str">
         <f>B4</f>
-        <v>ESTUDIANTE 1</v>
-      </c>
-      <c r="C11" s="39" t="s">
+        <v xml:space="preserve">BRENET </v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="14.45" outlineLevel="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="40" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="40" t="s">
+      <c r="I12" s="53"/>
+      <c r="J12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -1402,7 +1404,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.45" customHeight="1" outlineLevel="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -1410,21 +1412,17 @@
       <c r="C14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="str">
         <f>IF(D14="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F14" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G14" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12">
         <f>IF(F14="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H14" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1444,7 +1442,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -1486,7 +1484,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -1528,7 +1526,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -1570,7 +1568,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -1612,7 +1610,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -1654,23 +1652,23 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="22">
         <f>E20+G20+I20+K20</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
         <f>SUM(E13:E19)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
         <f>SUM(G13:G19)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
@@ -1684,64 +1682,64 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="14">
         <f>VLOOKUP(C20,ESCALA_IEP!A2:B202,2,FALSE)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:11" ht="24" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="11" t="str">
         <f>B5</f>
-        <v>ESTUDIANTE 2</v>
-      </c>
-      <c r="C24" s="39" t="s">
+        <v>LETELIER</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:11" ht="24" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="40" t="s">
+      <c r="E25" s="53"/>
+      <c r="F25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="53"/>
+      <c r="H25" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="40" t="s">
+      <c r="I25" s="53"/>
+      <c r="J25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -1783,7 +1781,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -1791,21 +1789,17 @@
       <c r="C27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>X</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="str">
         <f>IF(D27="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F27" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G27" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12">
         <f>IF(F27="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H27" s="12" t="str">
         <f t="shared" si="9"/>
@@ -1825,7 +1819,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -1867,7 +1861,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -1909,7 +1903,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -1951,7 +1945,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="24" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -1993,7 +1987,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -2035,23 +2029,23 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="24" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="22">
         <f>E33+G33+I33+K33</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
         <f>SUM(E26:E32)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13">
         <f>SUM(G26:G32)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
@@ -2065,64 +2059,64 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="24" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="14">
         <f>VLOOKUP(C33,ESCALA_IEP!A15:B215,2,FALSE)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.149999999999999" customHeight="1"/>
     <row r="36" spans="1:11" ht="13.9" customHeight="1"/>
     <row r="37" spans="1:11" ht="24" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="11" t="str">
         <f>B6</f>
-        <v>ESTUDIANTE 3</v>
-      </c>
-      <c r="C37" s="39" t="s">
+        <v>FARIAS</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" ht="24" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="40" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="40" t="s">
+      <c r="E38" s="53"/>
+      <c r="F38" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="41" t="s">
+      <c r="G38" s="53"/>
+      <c r="H38" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="40" t="s">
+      <c r="I38" s="53"/>
+      <c r="J38" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="52"/>
+      <c r="K38" s="53"/>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -2164,7 +2158,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -2172,21 +2166,17 @@
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="str">
         <f>IF(D40="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F40" s="12" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G40" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="12">
         <f>IF(F40="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H40" s="12" t="str">
         <f t="shared" si="14"/>
@@ -2206,7 +2196,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -2248,7 +2238,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -2290,7 +2280,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -2332,7 +2322,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -2374,7 +2364,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -2416,23 +2406,23 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="22">
         <f>E46+G46+I46+K46</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
         <f>SUM(E39:E45)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13">
         <f>SUM(G39:G45)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13">
@@ -2446,64 +2436,64 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="24" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47" s="14">
         <f>VLOOKUP(C46,ESCALA_IEP!A28:B228,2,FALSE)</f>
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="49" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:11" ht="24" customHeight="1">
-      <c r="A50" s="42" t="s">
-        <v>17</v>
+      <c r="A50" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="B50" s="11" t="str">
         <f>B4</f>
-        <v>ESTUDIANTE 1</v>
-      </c>
-      <c r="C50" s="39" t="s">
+        <v xml:space="preserve">BRENET </v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:11" ht="24" customHeight="1">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="40" t="s">
+      <c r="C51" s="55"/>
+      <c r="D51" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="40" t="s">
+      <c r="E51" s="53"/>
+      <c r="F51" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="41" t="s">
+      <c r="G51" s="53"/>
+      <c r="H51" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="40" t="s">
+      <c r="I51" s="53"/>
+      <c r="J51" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="52"/>
+      <c r="K51" s="53"/>
     </row>
     <row r="52" spans="1:11" ht="24" customHeight="1">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -2545,7 +2535,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="24" customHeight="1">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -2553,21 +2543,17 @@
       <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>X</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="str">
         <f>IF(D53="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F53" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G53" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="12">
         <f>IF(F53="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H53" s="12" t="str">
         <f t="shared" si="19"/>
@@ -2587,7 +2573,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="24" customHeight="1">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -2629,7 +2615,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="24" customHeight="1">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -2671,7 +2657,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="24" customHeight="1">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -2713,7 +2699,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="24" customHeight="1">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -2755,7 +2741,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="24" customHeight="1">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -2763,21 +2749,17 @@
       <c r="C58" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="12" t="str">
-        <f>IF($C58=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E58" s="12">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="str">
         <f>IF(D58="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F58" s="12" t="str">
-        <f>IF($C58=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G58" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="12">
         <f>IF(F58="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H58" s="12" t="str">
         <f>IF($C58=ML,"X","")</f>
@@ -2797,23 +2779,23 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="24" customHeight="1">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="22">
         <f>E59+G59+I59+K59</f>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
         <f>SUM(E52:E58)</f>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13">
         <f>SUM(G52:G58)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13">
@@ -2827,64 +2809,64 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="24" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="14">
         <f>VLOOKUP(C59,ESCALA_IEP!A41:B241,2,FALSE)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="62" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:11" ht="24" customHeight="1">
-      <c r="A63" s="42" t="s">
-        <v>18</v>
+      <c r="A63" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>B5</f>
-        <v>ESTUDIANTE 2</v>
-      </c>
-      <c r="C63" s="39" t="s">
+        <v>LETELIER</v>
+      </c>
+      <c r="C63" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="53"/>
     </row>
     <row r="64" spans="1:11" ht="24" customHeight="1">
-      <c r="A64" s="53"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="40" t="s">
+      <c r="C64" s="55"/>
+      <c r="D64" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="40" t="s">
+      <c r="E64" s="53"/>
+      <c r="F64" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="41" t="s">
+      <c r="G64" s="53"/>
+      <c r="H64" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="40" t="s">
+      <c r="I64" s="53"/>
+      <c r="J64" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="52"/>
+      <c r="K64" s="53"/>
     </row>
     <row r="65" spans="1:11" ht="24" customHeight="1">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -2926,7 +2908,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="24" customHeight="1">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -2934,21 +2916,17 @@
       <c r="C66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v>X</v>
-      </c>
-      <c r="E66" s="12">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12" t="str">
         <f>IF(D66="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F66" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G66" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="12">
         <f>IF(F66="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H66" s="12" t="str">
         <f t="shared" si="24"/>
@@ -2968,7 +2946,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="24" customHeight="1">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -3010,7 +2988,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="24" customHeight="1">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -3052,7 +3030,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="24" customHeight="1">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -3094,7 +3072,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="24" customHeight="1">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -3136,7 +3114,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="24" customHeight="1">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -3144,21 +3122,17 @@
       <c r="C71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="12" t="str">
-        <f>IF($C71=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E71" s="12">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12" t="str">
         <f>IF(D71="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F71" s="12" t="str">
-        <f>IF($C71=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G71" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="12">
         <f>IF(F71="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H71" s="12" t="str">
         <f>IF($C71=ML,"X","")</f>
@@ -3178,23 +3152,23 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="24" customHeight="1">
-      <c r="A72" s="53"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" s="22">
         <f>E72+G72+I72+K72</f>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
         <f>SUM(E65:E71)</f>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13">
         <f>SUM(G65:G71)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13">
@@ -3208,64 +3182,64 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="24" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73" s="14">
         <f>VLOOKUP(C72,ESCALA_IEP!A54:B254,2,FALSE)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="75" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:11" ht="24" customHeight="1">
-      <c r="A76" s="42" t="s">
-        <v>19</v>
+      <c r="A76" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="B76" s="11" t="str">
         <f>B6</f>
-        <v>ESTUDIANTE 3</v>
-      </c>
-      <c r="C76" s="39" t="s">
+        <v>FARIAS</v>
+      </c>
+      <c r="C76" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="53"/>
     </row>
     <row r="77" spans="1:11" ht="24" customHeight="1">
-      <c r="A77" s="53"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="40" t="s">
+      <c r="C77" s="55"/>
+      <c r="D77" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="52"/>
-      <c r="F77" s="40" t="s">
+      <c r="E77" s="53"/>
+      <c r="F77" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="41" t="s">
+      <c r="G77" s="53"/>
+      <c r="H77" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="52"/>
-      <c r="J77" s="40" t="s">
+      <c r="I77" s="53"/>
+      <c r="J77" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K77" s="52"/>
+      <c r="K77" s="53"/>
     </row>
     <row r="78" spans="1:11" ht="24" customHeight="1">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
@@ -3307,7 +3281,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="24" customHeight="1">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
@@ -3315,21 +3289,17 @@
       <c r="C79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="12" t="str">
-        <f t="shared" si="27"/>
-        <v>X</v>
-      </c>
-      <c r="E79" s="12">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12" t="str">
         <f>IF(D79="X",100*0.25,"")</f>
-        <v>25</v>
-      </c>
-      <c r="F79" s="12" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="G79" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="12">
         <f>IF(F79="X",60*0.25,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="H79" s="12" t="str">
         <f t="shared" si="29"/>
@@ -3349,7 +3319,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="24" customHeight="1">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
@@ -3391,7 +3361,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" ht="24" customHeight="1">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
@@ -3433,7 +3403,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="24" customHeight="1">
-      <c r="A82" s="55"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
@@ -3475,7 +3445,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="24" customHeight="1">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -3517,7 +3487,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" ht="24" customHeight="1">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
@@ -3525,21 +3495,17 @@
       <c r="C84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="12" t="str">
-        <f>IF($C84=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E84" s="12">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12" t="str">
         <f>IF(D84="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F84" s="12" t="str">
-        <f>IF($C84=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G84" s="12" t="str">
+        <v/>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="12">
         <f>IF(F84="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H84" s="12" t="str">
         <f>IF($C84=ML,"X","")</f>
@@ -3559,23 +3525,23 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="24" customHeight="1">
-      <c r="A85" s="53"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="22">
         <f>E85+G85+I85+K85</f>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
         <f>SUM(E78:E84)</f>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13">
         <f>SUM(G78:G84)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13">
@@ -3589,13 +3555,13 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="24" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" s="14">
         <f>VLOOKUP(C85,ESCALA_IEP!A67:B267,2,FALSE)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1"/>
@@ -4404,62 +4370,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>22</v>
       </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="44" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49" t="s">
         <v>24</v>
       </c>
+      <c r="C2" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="44"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="27">
         <v>0.3</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="110.45">
       <c r="A4" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="28">
         <v>15</v>
@@ -4467,19 +4433,19 @@
     </row>
     <row r="5" spans="1:6" ht="136.9" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="28">
         <v>25</v>
@@ -4487,19 +4453,19 @@
     </row>
     <row r="6" spans="1:6" ht="87" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="28">
         <v>20</v>
@@ -4507,19 +4473,19 @@
     </row>
     <row r="7" spans="1:6" ht="96.6">
       <c r="A7" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="28">
         <v>5</v>
@@ -4527,19 +4493,19 @@
     </row>
     <row r="8" spans="1:6" ht="96.6">
       <c r="A8" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="28">
         <v>5</v>
@@ -4547,19 +4513,19 @@
     </row>
     <row r="9" spans="1:6" ht="96.6">
       <c r="A9" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
@@ -4567,19 +4533,19 @@
     </row>
     <row r="10" spans="1:6" ht="126" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="24">
         <v>10</v>
@@ -4612,10 +4578,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45">
@@ -7043,10 +7009,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.45">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45">
@@ -8440,10 +8406,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45">
@@ -9756,18 +9722,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45">
-      <c r="A1" s="50" t="s">
-        <v>63</v>
+      <c r="A1" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="43.9" thickBot="1">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
@@ -9775,15 +9741,15 @@
         <v>12</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29.45" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
